--- a/slides/br_moeda_guerra.xlsx
+++ b/slides/br_moeda_guerra.xlsx
@@ -35,9 +35,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="166" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="4">
     <font>
@@ -104,7 +105,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -114,6 +115,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -134,15 +139,15 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="C20" activeCellId="0" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="14.21"/>
   </cols>
   <sheetData>
@@ -250,47 +255,124 @@
         <v>1945</v>
       </c>
       <c r="B10" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>16.7</v>
       </c>
-      <c r="C10" s="2" t="n">
-        <v>15</v>
-      </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
+      <c r="A11" s="1" t="n">
+        <v>1946</v>
+      </c>
+      <c r="B11" s="2" t="n">
+        <v>10.6</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>16.5</v>
+      </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
+      <c r="A12" s="1" t="n">
+        <v>1947</v>
+      </c>
+      <c r="B12" s="2" t="n">
+        <v>-0.9</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>21.9</v>
+      </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
+      <c r="A13" s="1" t="n">
+        <v>1948</v>
+      </c>
+      <c r="B13" s="2" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
+      <c r="A14" s="1" t="n">
+        <v>1949</v>
+      </c>
+      <c r="B14" s="2" t="n">
+        <v>17.1</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
+      <c r="A15" s="1" t="n">
+        <v>1950</v>
+      </c>
+      <c r="B15" s="2" t="n">
+        <v>27.5</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>9.4</v>
+      </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
+      <c r="A16" s="1" t="n">
+        <v>1951</v>
+      </c>
+      <c r="B16" s="2" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>12.1</v>
+      </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
+      <c r="A17" s="1" t="n">
+        <v>1952</v>
+      </c>
+      <c r="B17" s="2" t="n">
+        <v>16.8</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>17.3</v>
+      </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
+      <c r="A18" s="1" t="n">
+        <v>1953</v>
+      </c>
+      <c r="B18" s="2" t="n">
+        <v>19.6</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
+      <c r="A19" s="1" t="n">
+        <v>1954</v>
+      </c>
+      <c r="B19" s="2" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>22.6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>1955</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>19.4</v>
+      </c>
+      <c r="C20" s="3" t="n">
+        <v>23</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
